--- a/hypotheses.xlsx
+++ b/hypotheses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Hypothesis</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Maybe, but number of attacks is regular time series, but sentiment measures are irregular series</t>
   </si>
   <si>
-    <t>Is there convergence of FARC/govt (i.e. increased similarity in documents) before/after major agreements are reached?</t>
-  </si>
-  <si>
     <t>According to extremist spoiler theory, attacks from the rebel group that demonstrate it does not the will or the capacity to control its members will discourage the govt from believing that they will uphold the agreement</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Yes. Ignore (irregular) time series aspect; try to classify joint statements as FARC or govt? Estimate time series of policy positions using WORDFISH because there are noted shifts in positions of both sides?</t>
   </si>
   <si>
-    <t>Done -- but what do I do with them?</t>
-  </si>
-  <si>
     <t>Trust is built during peace process, so threshold for attacks is higher.</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Impulse response</t>
   </si>
   <si>
-    <t>Maybe -- have collected monthly public opinion polls. But govt sentiment is irregular time series -- coarsen data to monthly averages?</t>
-  </si>
-  <si>
     <t>Do joint statements become more similar to FARC/govt over time?</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>Similarity should increase over time.</t>
+  </si>
+  <si>
+    <t>Maybe -- have collected monthly public opinion data. But govt sentiment is irregular time series -- coarsen data to monthly averages? See if structural breaks in public opinion match up with changes in govt sentiment?</t>
+  </si>
+  <si>
+    <t>Do FARC/govt converge (i.e. increased similarity in documents) before/after major agreements are reached?</t>
+  </si>
+  <si>
+    <t>Done -- but what do I do with breaks?</t>
   </si>
 </sst>
 </file>
@@ -541,14 +541,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -566,17 +566,17 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -585,124 +585,130 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
